--- a/BalanceSheet/VRSN_bal.xlsx
+++ b/BalanceSheet/VRSN_bal.xlsx
@@ -1773,19 +1773,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-7613000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>8139000.0</v>
+        <v>12000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-31708000.0</v>
+        <v>10000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>53205000.0</v>
+        <v>15000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-27409000.0</v>
+        <v>10000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>209988000.0</v>
@@ -4524,7 +4524,7 @@
         <v>653000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>579000000.0</v>
+        <v>574506000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>556924000.0</v>
@@ -4651,7 +4651,7 @@
         <v>1792000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1797000000.0</v>
+        <v>1792565000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1786935000.0</v>
